--- a/PinOut/TEMP_PinOut.xlsx
+++ b/PinOut/TEMP_PinOut.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Documents\GitHub\Projeto\PinOut\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ADC(LightSensor)</t>
   </si>
@@ -86,13 +86,16 @@
     <t>AMPLIFIER</t>
   </si>
   <si>
-    <t>?</t>
+    <t>PA0(TIM2_CH2)</t>
+  </si>
+  <si>
+    <t>PA0(EXTI0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -464,11 +467,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +530,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -542,9 +545,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>

--- a/PinOut/TEMP_PinOut.xlsx
+++ b/PinOut/TEMP_PinOut.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>ADC(LightSensor)</t>
   </si>
@@ -90,13 +90,23 @@
   </si>
   <si>
     <t>PA0(EXTI0)</t>
+  </si>
+  <si>
+    <t>PA1 (Trigger)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,12 +156,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -471,17 +482,18 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -505,84 +517,86 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
